--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi2-Adam23.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H2">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J2">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q2">
-        <v>0.006752670781333333</v>
+        <v>0.004341580711</v>
       </c>
       <c r="R2">
-        <v>0.060774037032</v>
+        <v>0.039074226399</v>
       </c>
       <c r="S2">
-        <v>2.387226364277789E-05</v>
+        <v>1.538462474601996E-05</v>
       </c>
       <c r="T2">
-        <v>2.387226364277789E-05</v>
+        <v>1.538462474601996E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H3">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J3">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q3">
-        <v>0.5534481538586666</v>
+        <v>0.5607071368729999</v>
       </c>
       <c r="R3">
-        <v>4.981033384728</v>
+        <v>5.046364231856999</v>
       </c>
       <c r="S3">
-        <v>0.001956568100142746</v>
+        <v>0.001986895895163367</v>
       </c>
       <c r="T3">
-        <v>0.001956568100142746</v>
+        <v>0.001986895895163368</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.058936</v>
+        <v>0.05970899999999999</v>
       </c>
       <c r="H4">
-        <v>0.176808</v>
+        <v>0.179127</v>
       </c>
       <c r="I4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="J4">
-        <v>0.003640699631737656</v>
+        <v>0.003688274646134975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q4">
-        <v>0.4696322232319999</v>
+        <v>0.475791883008</v>
       </c>
       <c r="R4">
-        <v>4.226690009087999</v>
+        <v>4.282126947071999</v>
       </c>
       <c r="S4">
-        <v>0.001660259267952131</v>
+        <v>0.001685994126225587</v>
       </c>
       <c r="T4">
-        <v>0.001660259267952131</v>
+        <v>0.001685994126225588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>42.983926</v>
       </c>
       <c r="I5">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J5">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N5">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q5">
-        <v>1.641646877783778</v>
+        <v>1.041820518429111</v>
       </c>
       <c r="R5">
-        <v>14.774821900054</v>
+        <v>9.376384665862</v>
       </c>
       <c r="S5">
-        <v>0.005803603987792723</v>
+        <v>0.0036917470376922</v>
       </c>
       <c r="T5">
-        <v>0.005803603987792722</v>
+        <v>0.0036917470376922</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>42.983926</v>
       </c>
       <c r="I6">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J6">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q6">
         <v>134.5491973796296</v>
@@ -818,10 +818,10 @@
         <v>1210.942776416666</v>
       </c>
       <c r="S6">
-        <v>0.4756627439397335</v>
+        <v>0.4767823171682993</v>
       </c>
       <c r="T6">
-        <v>0.4756627439397335</v>
+        <v>0.4767823171682993</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>42.983926</v>
       </c>
       <c r="I7">
-        <v>0.8850932285803734</v>
+        <v>0.8850509663933519</v>
       </c>
       <c r="J7">
-        <v>0.8850932285803733</v>
+        <v>0.885050966393352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>23.905536</v>
       </c>
       <c r="O7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q7">
         <v>114.1726433793707</v>
@@ -880,10 +880,10 @@
         <v>1027.553790414336</v>
       </c>
       <c r="S7">
-        <v>0.4036268806528471</v>
+        <v>0.4045769021873604</v>
       </c>
       <c r="T7">
-        <v>0.403626880652847</v>
+        <v>0.4045769021873604</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.403558</v>
       </c>
       <c r="I8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J8">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N8">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O8">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P8">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q8">
-        <v>0.2063732875313334</v>
+        <v>0.1309684368273334</v>
       </c>
       <c r="R8">
-        <v>1.857359587782</v>
+        <v>1.178715931446</v>
       </c>
       <c r="S8">
-        <v>0.0007295776276245513</v>
+        <v>0.0004640936995726725</v>
       </c>
       <c r="T8">
-        <v>0.0007295776276245512</v>
+        <v>0.0004640936995726727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.403558</v>
       </c>
       <c r="I9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J9">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>28.171991</v>
       </c>
       <c r="O9">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P9">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q9">
         <v>16.91433192710867</v>
@@ -1004,10 +1004,10 @@
         <v>152.228987343978</v>
       </c>
       <c r="S9">
-        <v>0.05979610204329634</v>
+        <v>0.05993684486133959</v>
       </c>
       <c r="T9">
-        <v>0.05979610204329633</v>
+        <v>0.0599368448613396</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.403558</v>
       </c>
       <c r="I10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="J10">
-        <v>0.1112660717878889</v>
+        <v>0.111260758960513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>23.905536</v>
       </c>
       <c r="O10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q10">
         <v>14.352772255232</v>
@@ -1066,10 +1066,10 @@
         <v>129.174950297088</v>
       </c>
       <c r="S10">
-        <v>0.05074039211696803</v>
+        <v>0.05085982039960075</v>
       </c>
       <c r="T10">
-        <v>0.05074039211696802</v>
+        <v>0.05085982039960076</v>
       </c>
     </row>
   </sheetData>
